--- a/2023/DATA/Day05_PlanningSeed.xlsx
+++ b/2023/DATA/Day05_PlanningSeed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bao Ngan\Github\advent_of_code\2023\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CECFF5E-612B-4755-A857-9C35439E1C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD87B89-5DD5-46EB-852C-02683604D71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{F7B90236-60C0-4957-BB27-F5D9719F1791}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{F7B90236-60C0-4957-BB27-F5D9719F1791}"/>
   </bookViews>
   <sheets>
     <sheet name="seeds" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="fertilizer_to_water" sheetId="4" r:id="rId4"/>
     <sheet name="water_to_light" sheetId="5" r:id="rId5"/>
     <sheet name="light_to_temperature" sheetId="6" r:id="rId6"/>
-    <sheet name="humidity_to_location" sheetId="7" r:id="rId7"/>
+    <sheet name="temperature_to_humidity" sheetId="8" r:id="rId7"/>
+    <sheet name="humidity_to_location" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>929142010 467769747 2497466808 210166838 3768123711 33216796 1609270159 86969850 199555506 378609832 1840685500 314009711 1740069852 36868255 2161129344 170490105 2869967743 265455365 3984276455 31190888</t>
   </si>
@@ -621,6 +622,126 @@
   </si>
   <si>
     <t>1535995336 101582171 363986024</t>
+  </si>
+  <si>
+    <t>1042511941 613297634 21380371</t>
+  </si>
+  <si>
+    <t>1338560988 2467432579 195807105</t>
+  </si>
+  <si>
+    <t>1689790100 2663239684 5147838</t>
+  </si>
+  <si>
+    <t>1534368093 1255646654 123554085</t>
+  </si>
+  <si>
+    <t>1657922178 472280060 31867922</t>
+  </si>
+  <si>
+    <t>1063892312 634678005 22101508</t>
+  </si>
+  <si>
+    <t>3020373353 2743804882 227587056</t>
+  </si>
+  <si>
+    <t>3354622010 3207836814 51442173</t>
+  </si>
+  <si>
+    <t>279315000 1414949840 172148078</t>
+  </si>
+  <si>
+    <t>2333443661 0 36016786</t>
+  </si>
+  <si>
+    <t>2656069043 859373847 9250148</t>
+  </si>
+  <si>
+    <t>81520987 1873230878 37317266</t>
+  </si>
+  <si>
+    <t>2452902712 868623995 174257482</t>
+  </si>
+  <si>
+    <t>2665319191 1042881477 3068331</t>
+  </si>
+  <si>
+    <t>1085993820 504147982 109149652</t>
+  </si>
+  <si>
+    <t>1875725935 36016786 328594859</t>
+  </si>
+  <si>
+    <t>3247960409 4062312657 86516416</t>
+  </si>
+  <si>
+    <t>2743804882 3833392893 10707972</t>
+  </si>
+  <si>
+    <t>2204320794 2254867447 129122867</t>
+  </si>
+  <si>
+    <t>1302811887 1379200739 35749101</t>
+  </si>
+  <si>
+    <t>3930773544 4267797728 7024383</t>
+  </si>
+  <si>
+    <t>4056766582 3259278987 238200714</t>
+  </si>
+  <si>
+    <t>1195143472 364611645 107668415</t>
+  </si>
+  <si>
+    <t>0 656779513 81520987</t>
+  </si>
+  <si>
+    <t>2369460447 2383990314 83442265</t>
+  </si>
+  <si>
+    <t>3334476825 4274822111 20145185</t>
+  </si>
+  <si>
+    <t>451463078 1910548144 344319303</t>
+  </si>
+  <si>
+    <t>811683287 1642402224 230828654</t>
+  </si>
+  <si>
+    <t>2754512854 3160188107 47648707</t>
+  </si>
+  <si>
+    <t>2802161561 3844100865 218211792</t>
+  </si>
+  <si>
+    <t>3741977375 2971391938 188796169</t>
+  </si>
+  <si>
+    <t>2627160194 1226737805 28908849</t>
+  </si>
+  <si>
+    <t>3406064183 3497479701 245403322</t>
+  </si>
+  <si>
+    <t>795782381 843472941 15900906</t>
+  </si>
+  <si>
+    <t>174142559 738300500 105172441</t>
+  </si>
+  <si>
+    <t>1694937938 1045949808 180787997</t>
+  </si>
+  <si>
+    <t>3651467505 3742883023 90509870</t>
+  </si>
+  <si>
+    <t>3937797927 4148829073 118968655</t>
+  </si>
+  <si>
+    <t>118838253 1587097918 55304306</t>
+  </si>
+  <si>
+    <t>temperature_to_humidity</t>
   </si>
 </sst>
 </file>
@@ -1979,10 +2100,225 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F8C312-68B3-48D2-AB2D-9D9EC9A5C408}">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49469CCA-0E65-4D68-B0AA-3A6C5A7AFA60}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
